--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_3_25.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_3_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1767856.720391549</v>
+        <v>1765969.138875147</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>28.05687789581808</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>150.271542058071</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>25.31590541686258</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>155.2114886365809</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>85.75453794527439</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>9.620609031260406</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1066,16 +1066,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.714056408044396</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>25.3159054168623</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>154.4568055229666</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>320.7975396524254</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1297,13 +1297,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>38.85099796338668</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>59.72683757586857</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>100.4879364842344</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>91.5100621847841</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1622,10 +1622,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>11.89446409565886</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1777,13 +1777,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>3.295072325547696</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1825,10 +1825,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>95.89668408033722</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>139.1537278750035</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2138,7 +2138,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2245,16 +2245,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>117.0343205662369</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>170.5809693952289</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,22 +2473,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>169.7438101404422</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>67.11337411030129</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2536,7 +2536,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>90.75180619639563</v>
       </c>
       <c r="I28" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2773,7 +2773,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>69.89987177328376</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>49.33510273016643</v>
+        <v>76.31827504093727</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700708</v>
+        <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965533</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801214</v>
+        <v>91.23070601801209</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437416</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348206</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.7105717389791</v>
+        <v>93.71057173897904</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571497</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523578</v>
+        <v>54.76109577523572</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
         <v>166.3443044298322</v>
@@ -3007,16 +3007,16 @@
         <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.934386695271</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>231.319741708034</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
         <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235378</v>
+        <v>163.3813967235377</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,22 +3187,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
         <v>42.28735533463133</v>
@@ -3253,7 +3253,7 @@
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224546</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,22 +3424,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
         <v>42.28735533463133</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898722</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857175</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692856</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329064</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373698</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789552</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789549</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1167.455337753612</v>
+        <v>1139.146815977588</v>
       </c>
       <c r="C2" t="n">
-        <v>1167.455337753612</v>
+        <v>770.1842990371763</v>
       </c>
       <c r="D2" t="n">
-        <v>809.1896391468615</v>
+        <v>770.1842990371763</v>
       </c>
       <c r="E2" t="n">
-        <v>423.4013865486173</v>
+        <v>770.1842990371763</v>
       </c>
       <c r="F2" t="n">
-        <v>395.0611058457707</v>
+        <v>359.1983942475687</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.752638628377</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>1893.689751284806</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W2" t="n">
-        <v>1540.921096014692</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X2" t="n">
-        <v>1167.455337753612</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="Y2" t="n">
-        <v>1167.455337753612</v>
+        <v>1525.74665604171</v>
       </c>
     </row>
     <row r="3">
@@ -4410,28 +4410,28 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>546.4805193761947</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>377.5443364482878</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>227.4276970359521</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>79.51460345355898</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>79.51460345355898</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>571.3497027553424</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1376.372217881286</v>
+        <v>920.5121489496507</v>
       </c>
       <c r="C5" t="n">
-        <v>1376.372217881286</v>
+        <v>551.5496320092391</v>
       </c>
       <c r="D5" t="n">
-        <v>1018.106519274536</v>
+        <v>551.5496320092391</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762914</v>
+        <v>551.5496320092391</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>140.5637272196315</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2687.431304117959</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2433.669518756051</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V5" t="n">
-        <v>2102.60663141248</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W5" t="n">
-        <v>1749.837976142366</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="X5" t="n">
-        <v>1376.372217881286</v>
+        <v>1697.251320989584</v>
       </c>
       <c r="Y5" t="n">
-        <v>1376.372217881286</v>
+        <v>1307.111989013772</v>
       </c>
     </row>
     <row r="6">
@@ -4656,13 +4656,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>724.3774120770964</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C7" t="n">
-        <v>724.3774120770964</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D7" t="n">
-        <v>574.2607726647607</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
-        <v>426.3476790823676</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>426.3476790823676</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>724.3774120770964</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>724.3774120770964</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>724.3774120770964</v>
+        <v>702.55736257324</v>
       </c>
       <c r="T7" t="n">
-        <v>724.3774120770964</v>
+        <v>702.55736257324</v>
       </c>
       <c r="U7" t="n">
-        <v>724.3774120770964</v>
+        <v>702.55736257324</v>
       </c>
       <c r="V7" t="n">
-        <v>724.3774120770964</v>
+        <v>702.55736257324</v>
       </c>
       <c r="W7" t="n">
-        <v>724.3774120770964</v>
+        <v>702.55736257324</v>
       </c>
       <c r="X7" t="n">
-        <v>724.3774120770964</v>
+        <v>702.55736257324</v>
       </c>
       <c r="Y7" t="n">
-        <v>724.3774120770964</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1222.906241876376</v>
+        <v>1470.569074795015</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>1101.606557854603</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>1101.606557854603</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>1101.606557854603</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>690.6206530649958</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018223</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W8" t="n">
-        <v>2373.111172177389</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X8" t="n">
-        <v>1999.645413916309</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y8" t="n">
-        <v>1609.506081940498</v>
+        <v>1857.168914859137</v>
       </c>
     </row>
     <row r="9">
@@ -4878,25 +4878,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155903</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5063,28 +5063,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5115,7 +5115,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
         <v>138.7081686256435</v>
@@ -5124,19 +5124,19 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.043068977054</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>1999.905696641086</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O12" t="n">
-        <v>2279.445761859783</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2484.468242641993</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>564.1830073829217</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="C13" t="n">
-        <v>395.2468244550148</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D13" t="n">
-        <v>245.1301850426791</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5206,7 +5206,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.78763177146</v>
+        <v>1095.486750788024</v>
       </c>
       <c r="V13" t="n">
-        <v>955.1031435655735</v>
+        <v>840.8022625821368</v>
       </c>
       <c r="W13" t="n">
-        <v>665.685973528613</v>
+        <v>840.8022625821368</v>
       </c>
       <c r="X13" t="n">
-        <v>665.685973528613</v>
+        <v>612.8127116841194</v>
       </c>
       <c r="Y13" t="n">
-        <v>665.685973528613</v>
+        <v>392.0201325405893</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
@@ -5264,64 +5264,64 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5352,7 +5352,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
         <v>263.5382936126482</v>
@@ -5364,7 +5364,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
         <v>1558.376451307619</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>665.6859735286129</v>
+        <v>545.4651278373167</v>
       </c>
       <c r="C16" t="n">
-        <v>653.6713633309777</v>
+        <v>545.4651278373167</v>
       </c>
       <c r="D16" t="n">
-        <v>503.5547239186419</v>
+        <v>395.3484884249809</v>
       </c>
       <c r="E16" t="n">
-        <v>355.6416303362488</v>
+        <v>247.4353948425878</v>
       </c>
       <c r="F16" t="n">
-        <v>208.7516828383384</v>
+        <v>100.5454473446775</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5467,19 +5467,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.78763177146</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V16" t="n">
-        <v>955.1031435655735</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W16" t="n">
-        <v>665.6859735286129</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="X16" t="n">
-        <v>665.6859735286129</v>
+        <v>727.1135926675564</v>
       </c>
       <c r="Y16" t="n">
-        <v>665.6859735286129</v>
+        <v>727.1135926675564</v>
       </c>
     </row>
     <row r="17">
@@ -5513,7 +5513,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514082</v>
@@ -5531,10 +5531,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028581</v>
+        <v>846.3978353108173</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028581</v>
+        <v>677.4616523829102</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>359.169691290395</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471189</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011506</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952637</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028581</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028581</v>
+        <v>943.2631727657034</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,25 +5735,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5768,7 +5768,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5786,16 +5786,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5838,7 +5838,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
         <v>1558.376451307619</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>510.2366179610309</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="C22" t="n">
-        <v>510.2366179610309</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="D22" t="n">
-        <v>510.2366179610309</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="E22" t="n">
-        <v>362.3235243786378</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="F22" t="n">
-        <v>215.4335768807274</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="G22" t="n">
-        <v>215.4335768807274</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028584</v>
@@ -5911,49 +5911,49 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1326.612261067772</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1326.612261067772</v>
       </c>
       <c r="U22" t="n">
-        <v>1275.130855347408</v>
+        <v>1037.48362228133</v>
       </c>
       <c r="V22" t="n">
-        <v>1020.446367141522</v>
+        <v>782.7991340754432</v>
       </c>
       <c r="W22" t="n">
-        <v>731.029197104561</v>
+        <v>493.3819640384826</v>
       </c>
       <c r="X22" t="n">
-        <v>731.029197104561</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="Y22" t="n">
-        <v>510.2366179610309</v>
+        <v>265.3924131404653</v>
       </c>
     </row>
     <row r="23">
@@ -5987,7 +5987,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514085</v>
@@ -6075,7 +6075,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>732.358329063101</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>563.4221461351941</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028584</v>
@@ -6145,16 +6145,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799361</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6172,25 +6172,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1431.1249835778</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1141.996344791358</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="V25" t="n">
-        <v>1141.996344791358</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="W25" t="n">
-        <v>1141.996344791358</v>
+        <v>496.6650364395579</v>
       </c>
       <c r="X25" t="n">
-        <v>914.0067938933407</v>
+        <v>268.6754855415405</v>
       </c>
       <c r="Y25" t="n">
-        <v>914.0067938933407</v>
+        <v>268.6754855415405</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6209,25 +6209,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6245,31 +6245,31 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6300,7 +6300,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
@@ -6321,10 +6321,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>505.7582697485842</v>
+        <v>468.5954956259882</v>
       </c>
       <c r="C28" t="n">
-        <v>505.7582697485842</v>
+        <v>468.5954956259882</v>
       </c>
       <c r="D28" t="n">
-        <v>355.6416303362486</v>
+        <v>468.5954956259882</v>
       </c>
       <c r="E28" t="n">
-        <v>355.6416303362486</v>
+        <v>468.5954956259882</v>
       </c>
       <c r="F28" t="n">
-        <v>208.7516828383383</v>
+        <v>468.5954956259882</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7516828383383</v>
+        <v>300.4201739458088</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383383</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347409</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>986.0022165609669</v>
+        <v>986.0022165609662</v>
       </c>
       <c r="V28" t="n">
-        <v>986.0022165609669</v>
+        <v>986.0022165609662</v>
       </c>
       <c r="W28" t="n">
-        <v>915.3962854768411</v>
+        <v>696.5850465240055</v>
       </c>
       <c r="X28" t="n">
-        <v>687.4067345788238</v>
+        <v>468.5954956259882</v>
       </c>
       <c r="Y28" t="n">
-        <v>687.4067345788238</v>
+        <v>468.5954956259882</v>
       </c>
     </row>
     <row r="29">
@@ -6440,28 +6440,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514083</v>
@@ -6479,13 +6479,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6537,25 +6537,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>644.6755122555218</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.7457372049852</v>
+        <v>488.3308627950697</v>
       </c>
       <c r="C31" t="n">
-        <v>546.570419558449</v>
+        <v>375.1555451485336</v>
       </c>
       <c r="D31" t="n">
-        <v>452.214645427484</v>
+        <v>375.1555451485336</v>
       </c>
       <c r="E31" t="n">
-        <v>360.0624171264622</v>
+        <v>283.0033168475113</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264622</v>
+        <v>191.8742346309718</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276536</v>
+        <v>191.8742346309718</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864672</v>
+        <v>164.251007986467</v>
       </c>
       <c r="K31" t="n">
         <v>369.08763629335</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667505</v>
+        <v>671.4509053667507</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962048</v>
+        <v>997.6688721962049</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286024</v>
@@ -6637,7 +6637,7 @@
         <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021646</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
         <v>1936.126063056074</v>
@@ -6646,25 +6646,25 @@
         <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1880.81182489927</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1712.787274970146</v>
+        <v>1568.62813016707</v>
       </c>
       <c r="U31" t="n">
-        <v>1479.419501465075</v>
+        <v>1335.260356661999</v>
       </c>
       <c r="V31" t="n">
-        <v>1280.495878540559</v>
+        <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>1046.839573784969</v>
+        <v>902.6804289818936</v>
       </c>
       <c r="X31" t="n">
-        <v>874.6108881683227</v>
+        <v>730.451743365247</v>
       </c>
       <c r="Y31" t="n">
-        <v>709.5791743061634</v>
+        <v>565.4200295030876</v>
       </c>
     </row>
     <row r="32">
@@ -6692,31 +6692,31 @@
         <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823779</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514075</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6786,7 +6786,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6795,10 +6795,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108325</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229666</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083199</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504506</v>
       </c>
       <c r="G34" t="n">
         <v>221.5295092103129</v>
@@ -6859,7 +6859,7 @@
         <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L34" t="n">
         <v>709.8489468649691</v>
@@ -6892,16 +6892,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045204</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010311</v>
       </c>
     </row>
     <row r="35">
@@ -6929,58 +6929,58 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7011,7 +7011,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7023,7 +7023,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108333</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
@@ -7120,25 +7120,25 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T37" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="38">
@@ -7166,16 +7166,16 @@
         <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7184,19 +7184,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7248,28 +7248,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7312,16 +7312,16 @@
         <v>559.344147222967</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7330,13 +7330,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525398</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7351,7 +7351,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7485,7 +7485,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7497,7 +7497,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7506,10 +7506,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7546,19 +7546,19 @@
         <v>659.4602391108331</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7567,13 +7567,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7588,19 +7588,19 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T43" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
         <v>1304.027639859417</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="44">
@@ -7640,37 +7640,37 @@
         <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7722,7 +7722,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7734,7 +7734,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7743,10 +7743,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083198</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504505</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103122</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7810,7 +7810,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649692</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8544,10 +8544,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P9" t="n">
-        <v>275.0442842992669</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8772,22 +8772,22 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>29.47535963978214</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>52.49733361305221</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445217</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9419,7 +9419,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599059</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,7 +10191,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>234.4116509503169</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10206,7 +10206,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10604,7 +10604,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>79.34404369770293</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>194.7272902137933</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>155.352357002969</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>163.1984961378299</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23713,10 +23713,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>83.93529610160007</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24133,16 +24133,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>31.87950780129918</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24175,13 +24175,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>27.33984058837431</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,22 +24361,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>10.08817004149515</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24412,10 +24412,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>154.434186948088</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633775</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>58.16202217114049</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -24661,7 +24661,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>216.6231265633072</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>75.29362082321384</v>
+        <v>48.31044851244295</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.41221638965527</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437422</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571491</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550462</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
     </row>
     <row r="35">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>901202.1983061399</v>
+        <v>901202.19830614</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>901202.19830614</v>
+        <v>901202.1983061401</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>901202.1983061401</v>
+        <v>901202.1983061399</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>901202.1983061401</v>
+        <v>901202.19830614</v>
       </c>
     </row>
     <row r="11">
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651768</v>
+        <v>513151.1061651767</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651772</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651772</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="E2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.3246721358</v>
       </c>
       <c r="F2" t="n">
         <v>488786.3246721359</v>
       </c>
       <c r="G2" t="n">
-        <v>488786.324672136</v>
+        <v>488786.3246721361</v>
       </c>
       <c r="H2" t="n">
         <v>488786.3246721359</v>
@@ -26335,7 +26335,7 @@
         <v>488786.3246721359</v>
       </c>
       <c r="J2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.324672136</v>
       </c>
       <c r="K2" t="n">
         <v>508527.6716815879</v>
@@ -26344,13 +26344,13 @@
         <v>513151.1061651764</v>
       </c>
       <c r="M2" t="n">
+        <v>513151.1061651765</v>
+      </c>
+      <c r="N2" t="n">
+        <v>513151.1061651765</v>
+      </c>
+      <c r="O2" t="n">
         <v>513151.1061651766</v>
-      </c>
-      <c r="N2" t="n">
-        <v>513151.1061651763</v>
-      </c>
-      <c r="O2" t="n">
-        <v>513151.1061651765</v>
       </c>
       <c r="P2" t="n">
         <v>513151.1061651765</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284557</v>
+        <v>44162.60530284567</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086691</v>
+        <v>10342.90680086687</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284559</v>
+        <v>44162.60530284562</v>
       </c>
     </row>
     <row r="4">
@@ -26427,37 +26427,37 @@
         <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687068</v>
       </c>
       <c r="G4" t="n">
+        <v>22174.6075868707</v>
+      </c>
+      <c r="H4" t="n">
         <v>22174.60758687073</v>
-      </c>
-      <c r="H4" t="n">
-        <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687069</v>
       </c>
       <c r="K4" t="n">
-        <v>40339.23010106723</v>
+        <v>40339.23010106727</v>
       </c>
       <c r="L4" t="n">
         <v>44593.39482819119</v>
       </c>
       <c r="M4" t="n">
-        <v>44593.3948281912</v>
+        <v>44593.39482819117</v>
       </c>
       <c r="N4" t="n">
-        <v>44593.39482819118</v>
+        <v>44593.39482819122</v>
       </c>
       <c r="O4" t="n">
-        <v>44593.39482819117</v>
+        <v>44593.39482819119</v>
       </c>
       <c r="P4" t="n">
-        <v>44593.39482819118</v>
+        <v>44593.39482819119</v>
       </c>
     </row>
     <row r="5">
@@ -26473,43 +26473,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022279</v>
+        <v>96628.20853022281</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-325308.7188993015</v>
+        <v>-325308.7188993017</v>
       </c>
       <c r="C6" t="n">
+        <v>264659.1603152432</v>
+      </c>
+      <c r="D6" t="n">
         <v>264659.1603152433</v>
       </c>
-      <c r="D6" t="n">
-        <v>264659.1603152434</v>
-      </c>
       <c r="E6" t="n">
-        <v>-150535.6453403476</v>
+        <v>-150633.10446632</v>
       </c>
       <c r="F6" t="n">
-        <v>374624.3911365485</v>
+        <v>374526.9320105764</v>
       </c>
       <c r="G6" t="n">
-        <v>374624.3911365487</v>
+        <v>374526.9320105766</v>
       </c>
       <c r="H6" t="n">
-        <v>374624.3911365486</v>
+        <v>374526.9320105764</v>
       </c>
       <c r="I6" t="n">
-        <v>374624.3911365486</v>
+        <v>374526.9320105764</v>
       </c>
       <c r="J6" t="n">
-        <v>198201.1719439556</v>
+        <v>198103.7128179835</v>
       </c>
       <c r="K6" t="n">
-        <v>327397.6277474522</v>
+        <v>327379.1340095178</v>
       </c>
       <c r="L6" t="n">
-        <v>360499.698716093</v>
+        <v>360499.6987160929</v>
       </c>
       <c r="M6" t="n">
-        <v>236041.5902831229</v>
+        <v>236041.5902831226</v>
       </c>
       <c r="N6" t="n">
-        <v>370842.6055169597</v>
+        <v>370842.6055169599</v>
       </c>
       <c r="O6" t="n">
         <v>370842.60551696</v>
       </c>
       <c r="P6" t="n">
-        <v>326680.0002141144</v>
+        <v>326680.0002141143</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26747,16 +26747,16 @@
         <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26765,19 +26765,19 @@
         <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108363</v>
+        <v>12.92863350108358</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855703</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855709</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>378.8191678458934</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>263.512627962724</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,19 +27424,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,22 +27534,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>141.9938968421883</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27594,13 +27594,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>96.92615468724711</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>328.0296320755206</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,19 +27661,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>206.8277113263974</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>25.40869354686991</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>186.8296335331566</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>259.3273644978283</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27913,10 +27913,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>28.44342906498764</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28017,13 +28017,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>165.9828178131686</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28612,10 +28612,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-1.4210854715202e-13</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28858,7 +28858,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855709</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="41">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35024,7 +35024,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35264,10 +35264,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
-        <v>296.2227415328944</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35492,22 +35492,22 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>362.6699330377951</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
         <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>140.5103663981263</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35732,16 +35732,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36139,10 +36139,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150206</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,16 +36206,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,16 +36355,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,16 +36443,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36689,13 +36689,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,13 +36750,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
@@ -36765,10 +36765,10 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
         <v>39.22569997187475</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>384.9870895382561</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
@@ -36926,7 +36926,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412255</v>
+        <v>67.7110267941226</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084855</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
         <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341606</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
         <v>291.4406081491599</v>
@@ -37008,7 +37008,7 @@
         <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043177</v>
+        <v>94.42895660043183</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,22 +37154,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37239,7 +37239,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
         <v>246.5154907414414</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37324,10 +37324,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,16 +37391,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37476,7 +37476,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414414</v>
@@ -37540,16 +37540,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37716,7 +37716,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,22 +37865,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520614</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,22 +38102,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
